--- a/documents/Risk_Analysis.xlsx
+++ b/documents/Risk_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zenon/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zenon/dev/apps/formagreen/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDD9800-F81C-A947-9656-2D726A24B1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F571096A-A8EC-F64C-A2F7-4F31F3A8FACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{B0539353-3D0E-1443-A827-F362412E3894}"/>
   </bookViews>
@@ -25,16 +25,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>kqbkqjsdbkqsd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>ACTIONS</t>
+  </si>
+  <si>
+    <t>BYPASS</t>
+  </si>
+  <si>
+    <t>RECUPERATION DES PARAMÈTRES DEPUIS L'URL</t>
+  </si>
+  <si>
+    <t>INJECTION SQL</t>
+  </si>
+  <si>
+    <t>UTILISATION DES REQUETRE PREPARÉES AVEC DOCTRINE</t>
+  </si>
+  <si>
+    <t>FORMULAIRE INSERTION / SUPPRESSION</t>
+  </si>
+  <si>
+    <t>FAILLE CSRF</t>
+  </si>
+  <si>
+    <t>GENERATION D'UN TOKEN CSRF ET INCLUSION DANS LES FORMULAIRE</t>
+  </si>
+  <si>
+    <t>FAILLE XSS</t>
+  </si>
+  <si>
+    <t>VARIABLES GET</t>
+  </si>
+  <si>
+    <t>SANITIZE / PURGE DES URL AVEC PAR EXEMPLE STRIP TAGS ou LES FONCTION CTYPE ou FILTER</t>
+  </si>
+  <si>
+    <t>INCOHERENCE SYSTEM</t>
+  </si>
+  <si>
+    <t>BATCH CRONÉ DE MISE A JOURS DE LA VALIDITÉ DES SOUSCRIPTIONS</t>
+  </si>
+  <si>
+    <t>RISKS</t>
+  </si>
+  <si>
+    <t>VALIDITÉ DES SOUSCRIPTIONS</t>
+  </si>
+  <si>
+    <t>BLOCAGE MAJEUR</t>
+  </si>
+  <si>
+    <t>BATCH CRONÉ DE DUMP DE LA BASE DE DONNEES</t>
+  </si>
+  <si>
+    <t>PERTE DE DONNÉES</t>
+  </si>
+  <si>
+    <t>https://owasp.org/Top10/fr/A04_2021-Insecure_Design/</t>
+  </si>
+  <si>
+    <t>Développement sécuritsé =&gt; OWASP  =&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,13 +99,70 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +177,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,16 +515,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359F19F7-2894-1B4B-827C-41153A911666}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="42.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="83.1640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
